--- a/Correlations/medPearson.xlsx
+++ b/Correlations/medPearson.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>keyword</t>
   </si>
@@ -31,241 +31,250 @@
     <t>MG_newDeaths</t>
   </si>
   <si>
-    <t>covid igg</t>
-  </si>
-  <si>
-    <t>covid igm igg</t>
+    <t>dor de garganta</t>
+  </si>
+  <si>
+    <t>reabertura academias</t>
+  </si>
+  <si>
+    <t>reabertura escolas</t>
+  </si>
+  <si>
+    <t>teste rapido de coronavírus</t>
+  </si>
+  <si>
+    <t>febre</t>
+  </si>
+  <si>
+    <t>tosse</t>
+  </si>
+  <si>
+    <t>tomar ivermectina</t>
+  </si>
+  <si>
+    <t>para que serve ivermectina</t>
+  </si>
+  <si>
+    <t>ivermectina covid como tomar</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>coronavírus no brasil</t>
+  </si>
+  <si>
+    <t>ministerio da saude</t>
+  </si>
+  <si>
+    <t>taxa de ocupação de leitos</t>
+  </si>
+  <si>
+    <t>máscara n95</t>
+  </si>
+  <si>
+    <t>máscara descartável</t>
+  </si>
+  <si>
+    <t>covid pcr</t>
+  </si>
+  <si>
+    <t>pcr exame covid</t>
+  </si>
+  <si>
+    <t>pcr</t>
+  </si>
+  <si>
+    <t>coronavírus quarentena</t>
+  </si>
+  <si>
+    <t>mortes corona</t>
+  </si>
+  <si>
+    <t>oms corona</t>
+  </si>
+  <si>
+    <t>respirador hospitalar</t>
+  </si>
+  <si>
+    <t>medicamento coronavírus</t>
+  </si>
+  <si>
+    <t>estou com covid</t>
+  </si>
+  <si>
+    <t>peguei covid</t>
+  </si>
+  <si>
+    <t>teste coronavírus</t>
+  </si>
+  <si>
+    <t>falta de ar sintomas</t>
+  </si>
+  <si>
+    <t>falta de ar</t>
+  </si>
+  <si>
+    <t>sintomas coronavirus</t>
+  </si>
+  <si>
+    <t>seguro desemprego entrada</t>
+  </si>
+  <si>
+    <t>pico brasil</t>
+  </si>
+  <si>
+    <t>pico coronavírus</t>
+  </si>
+  <si>
+    <t>brasil coronavírus</t>
+  </si>
+  <si>
+    <t>coronavírus brasil pico</t>
+  </si>
+  <si>
+    <t>coronavírus pico brasil</t>
+  </si>
+  <si>
+    <t>pico corona</t>
+  </si>
+  <si>
+    <t>coronavírus grupo de risco</t>
+  </si>
+  <si>
+    <t>leitos de uti</t>
+  </si>
+  <si>
+    <t>leitos uti brasil</t>
+  </si>
+  <si>
+    <t>fazer máscara</t>
+  </si>
+  <si>
+    <t>máscara</t>
+  </si>
+  <si>
+    <t>máscara tecido</t>
+  </si>
+  <si>
+    <t>como fazer máscara</t>
+  </si>
+  <si>
+    <t>máscara de tecido como fazer</t>
+  </si>
+  <si>
+    <t>máscara proteção</t>
+  </si>
+  <si>
+    <t>máscaras</t>
+  </si>
+  <si>
+    <t>máscara de tecido</t>
+  </si>
+  <si>
+    <t>teste rápido covid</t>
+  </si>
+  <si>
+    <t>teste igg</t>
+  </si>
+  <si>
+    <t>quarentena</t>
+  </si>
+  <si>
+    <t>quarentena dia</t>
+  </si>
+  <si>
+    <t>quarentena brasil</t>
+  </si>
+  <si>
+    <t>fim quarentena</t>
+  </si>
+  <si>
+    <t>brasil coronavírus mortes</t>
+  </si>
+  <si>
+    <t>mortes por coronavírus</t>
+  </si>
+  <si>
+    <t>decreto quarentena</t>
+  </si>
+  <si>
+    <t>coronavírus oms</t>
+  </si>
+  <si>
+    <t>oms coronavírus</t>
+  </si>
+  <si>
+    <t>coronavírus imunidade</t>
+  </si>
+  <si>
+    <t>respirador mecanico</t>
+  </si>
+  <si>
+    <t>respirador</t>
+  </si>
+  <si>
+    <t>medicamento corona</t>
+  </si>
+  <si>
+    <t>teste covid</t>
+  </si>
+  <si>
+    <t>termometro digital</t>
+  </si>
+  <si>
+    <t>termometro</t>
+  </si>
+  <si>
+    <t>como dar entrada no seguro desemprego</t>
+  </si>
+  <si>
+    <t>pico pandemia</t>
+  </si>
+  <si>
+    <t>brasil pico da pandemia</t>
+  </si>
+  <si>
+    <t>cesta básica</t>
+  </si>
+  <si>
+    <t>cesta básica cras</t>
+  </si>
+  <si>
+    <t>covid 19</t>
+  </si>
+  <si>
+    <t>igg</t>
+  </si>
+  <si>
+    <t>igm</t>
+  </si>
+  <si>
+    <t>igg igm</t>
+  </si>
+  <si>
+    <t>exame igg</t>
+  </si>
+  <si>
+    <t>isolamento social</t>
+  </si>
+  <si>
+    <t>covid 19 oms</t>
+  </si>
+  <si>
+    <t>oms brasil coronavírus</t>
+  </si>
+  <si>
+    <t>covid 19 sintomas</t>
+  </si>
+  <si>
+    <t>exame cotonete</t>
   </si>
   <si>
     <t>exame covid</t>
   </si>
   <si>
-    <t>exame igg</t>
-  </si>
-  <si>
-    <t>igg igm</t>
-  </si>
-  <si>
-    <t>igg</t>
-  </si>
-  <si>
-    <t>igm</t>
-  </si>
-  <si>
-    <t>ivermectina covid como tomar</t>
-  </si>
-  <si>
-    <t>para que que serve ivermectina</t>
-  </si>
-  <si>
-    <t>plano de reabertura</t>
-  </si>
-  <si>
-    <t>reabertura academias</t>
-  </si>
-  <si>
-    <t>reabertura escolas</t>
-  </si>
-  <si>
-    <t>reabertura shopping</t>
-  </si>
-  <si>
     <t>reagente igg</t>
-  </si>
-  <si>
-    <t>teste covid</t>
-  </si>
-  <si>
-    <t>teste igg</t>
-  </si>
-  <si>
-    <t>teste rápido covid</t>
-  </si>
-  <si>
-    <t>tomar ivermectina</t>
-  </si>
-  <si>
-    <t>covid pcr</t>
-  </si>
-  <si>
-    <t>estou com covid</t>
-  </si>
-  <si>
-    <t>exame cotonete</t>
-  </si>
-  <si>
-    <t>pcr exame covid</t>
-  </si>
-  <si>
-    <t>pcr</t>
-  </si>
-  <si>
-    <t>peguei covid</t>
-  </si>
-  <si>
-    <t>brasil coronavirus</t>
-  </si>
-  <si>
-    <t>corona grupo de risco</t>
-  </si>
-  <si>
-    <t>coronavirus no brasil</t>
-  </si>
-  <si>
-    <t>coronavirus oms</t>
-  </si>
-  <si>
-    <t>medicamento corona</t>
-  </si>
-  <si>
-    <t>medicamento coronavirus</t>
-  </si>
-  <si>
-    <t>oms corona</t>
-  </si>
-  <si>
-    <t>álcool 70</t>
-  </si>
-  <si>
-    <t>álcool gel</t>
-  </si>
-  <si>
-    <t>febre</t>
-  </si>
-  <si>
-    <t>tosse</t>
-  </si>
-  <si>
-    <t>brasil coronavirus mortes</t>
-  </si>
-  <si>
-    <t>brasil pico da pandemia</t>
-  </si>
-  <si>
-    <t>casos novos coronavirus</t>
-  </si>
-  <si>
-    <t>cesta basica cras</t>
-  </si>
-  <si>
-    <t>cesta básica</t>
-  </si>
-  <si>
-    <t>como dar entrada no seguro desemprego</t>
-  </si>
-  <si>
-    <t>como fazer máscara</t>
-  </si>
-  <si>
-    <t>coronavirus brasil pico</t>
-  </si>
-  <si>
-    <t>coronavirus pico brasil</t>
-  </si>
-  <si>
-    <t>coronavirus quarentena</t>
-  </si>
-  <si>
-    <t>covid 19 oms</t>
-  </si>
-  <si>
-    <t>covid 19 sintomas</t>
-  </si>
-  <si>
-    <t>covid 19</t>
-  </si>
-  <si>
-    <t>decreto quarentena</t>
-  </si>
-  <si>
-    <t>falta de ar sintomas</t>
-  </si>
-  <si>
-    <t>falta de ar</t>
-  </si>
-  <si>
-    <t>fazer máscara</t>
-  </si>
-  <si>
-    <t>fim quarentena</t>
-  </si>
-  <si>
-    <t>isolamento social</t>
-  </si>
-  <si>
-    <t>leitos de uti</t>
-  </si>
-  <si>
-    <t>mascara de tecido</t>
-  </si>
-  <si>
-    <t>mascara</t>
-  </si>
-  <si>
-    <t>mascaras</t>
-  </si>
-  <si>
-    <t>ministerio da saude</t>
-  </si>
-  <si>
-    <t>mortes corona</t>
-  </si>
-  <si>
-    <t>mortes por coronavirus</t>
-  </si>
-  <si>
-    <t>máscara de tecido como fazer</t>
-  </si>
-  <si>
-    <t>máscara descartável</t>
-  </si>
-  <si>
-    <t>máscara n95</t>
-  </si>
-  <si>
-    <t>máscara proteção</t>
-  </si>
-  <si>
-    <t>máscara tecido</t>
-  </si>
-  <si>
-    <t>oms brasil coronavirus</t>
-  </si>
-  <si>
-    <t>oms coronavírus</t>
-  </si>
-  <si>
-    <t>pico brasil</t>
-  </si>
-  <si>
-    <t>pico corona</t>
-  </si>
-  <si>
-    <t>pico coronavirus</t>
-  </si>
-  <si>
-    <t>quarentena brasil</t>
-  </si>
-  <si>
-    <t>quarentena dia</t>
-  </si>
-  <si>
-    <t>quarentena</t>
-  </si>
-  <si>
-    <t>respirador</t>
-  </si>
-  <si>
-    <t>seguro desemprego entrada</t>
-  </si>
-  <si>
-    <t>termometro digital</t>
-  </si>
-  <si>
-    <t>termometro</t>
-  </si>
-  <si>
-    <t>teste coronavirus</t>
   </si>
 </sst>
 </file>
@@ -623,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,10 +663,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.878742000442236</v>
-      </c>
-      <c r="D2">
-        <v>0.7409837101659369</v>
+        <v>-0.5362366636415538</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -668,10 +674,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.871033739341847</v>
-      </c>
-      <c r="D3">
-        <v>0.7362521809313467</v>
+        <v>0.5944476969591206</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -682,13 +685,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.7119791458716518</v>
-      </c>
-      <c r="D4">
-        <v>0.8593585306505142</v>
-      </c>
-      <c r="E4">
-        <v>0.7479291151522643</v>
+        <v>0.6318909253801569</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -699,7 +696,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.8000706780900345</v>
+        <v>0.5257855559551896</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -710,10 +707,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.8730348981863357</v>
+        <v>-0.5128026835030518</v>
       </c>
       <c r="D6">
-        <v>0.7240431542722598</v>
+        <v>-0.6468810854286543</v>
+      </c>
+      <c r="E6">
+        <v>-0.6589713973500901</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -724,10 +724,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.8818303800175032</v>
+        <v>-0.6537770552135889</v>
       </c>
       <c r="D7">
-        <v>0.74917170674512</v>
+        <v>-0.6593813743940731</v>
+      </c>
+      <c r="E7">
+        <v>-0.5807272321026047</v>
+      </c>
+      <c r="F7">
+        <v>-0.6119506090070249</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -738,10 +744,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.9003139279461155</v>
+        <v>0.6601081952784831</v>
       </c>
       <c r="D8">
-        <v>0.7456899410866701</v>
+        <v>0.6488623200418868</v>
+      </c>
+      <c r="E8">
+        <v>0.5406552668669261</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -752,10 +761,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.845849243632589</v>
-      </c>
-      <c r="D9">
-        <v>0.7957775428550856</v>
+        <v>0.6488931959718401</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -766,7 +772,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.7173086203257535</v>
+        <v>0.5844470536802379</v>
+      </c>
+      <c r="D10">
+        <v>0.542862425102946</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -777,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.7424861598414459</v>
+        <v>0.5473915465581353</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -788,7 +797,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0.7559658816952974</v>
+        <v>-0.5332041421440694</v>
+      </c>
+      <c r="D12">
+        <v>-0.6860173647068464</v>
+      </c>
+      <c r="E12">
+        <v>-0.673968588709285</v>
+      </c>
+      <c r="F12">
+        <v>-0.649311583219053</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -799,7 +817,13 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.7261954708104643</v>
+        <v>-0.5019358193726434</v>
+      </c>
+      <c r="D13">
+        <v>-0.6890390857194996</v>
+      </c>
+      <c r="F13">
+        <v>-0.6719162762930753</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -810,7 +834,10 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.7137743658147547</v>
+        <v>0.6050060806962162</v>
+      </c>
+      <c r="D14">
+        <v>0.5065866643503819</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -821,16 +848,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0.7953752379768579</v>
+        <v>-0.5362614182819342</v>
       </c>
       <c r="D15">
-        <v>0.83875518007481</v>
+        <v>-0.6830542077692024</v>
       </c>
       <c r="E15">
-        <v>0.7762583001720091</v>
+        <v>-0.6726653996198015</v>
       </c>
       <c r="F15">
-        <v>0.7291521153830216</v>
+        <v>-0.6531468926621024</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -841,10 +868,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.7537458364548152</v>
+        <v>-0.5621525997644951</v>
       </c>
       <c r="D16">
-        <v>0.7736614491140981</v>
+        <v>-0.6412802596792256</v>
+      </c>
+      <c r="E16">
+        <v>-0.5949299107114547</v>
+      </c>
+      <c r="F16">
+        <v>-0.5814611140209659</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -855,7 +888,10 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.8478460317990307</v>
+        <v>0.616243938322103</v>
+      </c>
+      <c r="F17">
+        <v>0.6184060261778789</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -866,7 +902,10 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0.7749648084439593</v>
+        <v>0.5511732301872425</v>
+      </c>
+      <c r="F18">
+        <v>0.6058218931205637</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -877,13 +916,10 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0.8660719810898639</v>
-      </c>
-      <c r="D19">
-        <v>0.8409102192791336</v>
-      </c>
-      <c r="E19">
-        <v>0.7120690989877491</v>
+        <v>0.5343857105021553</v>
+      </c>
+      <c r="F19">
+        <v>0.5948367908200107</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -893,11 +929,17 @@
       <c r="B20" t="s">
         <v>23</v>
       </c>
+      <c r="C20">
+        <v>-0.5438550652167344</v>
+      </c>
       <c r="D20">
-        <v>0.8863588848128726</v>
+        <v>-0.6812858861084887</v>
       </c>
       <c r="E20">
-        <v>0.8075716857450457</v>
+        <v>-0.6555292583786727</v>
+      </c>
+      <c r="F20">
+        <v>-0.6295965067128116</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -907,8 +949,17 @@
       <c r="B21" t="s">
         <v>24</v>
       </c>
+      <c r="C21">
+        <v>-0.5197795655238204</v>
+      </c>
       <c r="D21">
-        <v>0.7430022762093478</v>
+        <v>-0.6342490868476084</v>
+      </c>
+      <c r="E21">
+        <v>-0.6077919495279067</v>
+      </c>
+      <c r="F21">
+        <v>-0.5858737671066652</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -918,14 +969,17 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
+      <c r="C22">
+        <v>-0.5256523120727868</v>
+      </c>
       <c r="D22">
-        <v>0.8651108413496054</v>
+        <v>-0.5896518489879906</v>
       </c>
       <c r="E22">
-        <v>0.8903854857263523</v>
+        <v>-0.5466259483409703</v>
       </c>
       <c r="F22">
-        <v>0.7633297254982299</v>
+        <v>-0.5373717222098177</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -935,11 +989,11 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
+      <c r="C23">
+        <v>-0.5094871892958059</v>
+      </c>
       <c r="D23">
-        <v>0.8793006990879781</v>
-      </c>
-      <c r="E23">
-        <v>0.8060070405407536</v>
+        <v>-0.5266382807564153</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -949,11 +1003,17 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
+      <c r="C24">
+        <v>-0.5216945707550431</v>
+      </c>
       <c r="D24">
-        <v>0.907559021844549</v>
+        <v>-0.6051510965111764</v>
       </c>
       <c r="E24">
-        <v>0.8444100888233996</v>
+        <v>-0.5671918941965197</v>
+      </c>
+      <c r="F24">
+        <v>-0.5352790055300746</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -963,11 +1023,11 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="D25">
-        <v>0.8197463251411996</v>
+      <c r="C25">
+        <v>0.6945465381792469</v>
       </c>
       <c r="E25">
-        <v>0.7524949677173879</v>
+        <v>0.6355669288754574</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -977,8 +1037,17 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
+      <c r="C26">
+        <v>0.5626900775784426</v>
+      </c>
+      <c r="D26">
+        <v>0.6750265766077455</v>
+      </c>
       <c r="E26">
-        <v>-0.7121454871406987</v>
+        <v>0.6881575047549481</v>
+      </c>
+      <c r="F26">
+        <v>0.5526479717258299</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -988,11 +1057,14 @@
       <c r="B27" t="s">
         <v>30</v>
       </c>
+      <c r="D27">
+        <v>-0.5812500190904001</v>
+      </c>
       <c r="E27">
-        <v>-0.7472459455723246</v>
+        <v>-0.6512688576805418</v>
       </c>
       <c r="F27">
-        <v>-0.7569340707161413</v>
+        <v>-0.6336959227865578</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1002,8 +1074,14 @@
       <c r="B28" t="s">
         <v>31</v>
       </c>
+      <c r="D28">
+        <v>-0.5168112567325291</v>
+      </c>
       <c r="E28">
-        <v>-0.7119569106005142</v>
+        <v>-0.5793713900797451</v>
+      </c>
+      <c r="F28">
+        <v>-0.602729798405892</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1013,8 +1091,14 @@
       <c r="B29" t="s">
         <v>32</v>
       </c>
+      <c r="D29">
+        <v>-0.5720652285935556</v>
+      </c>
       <c r="E29">
-        <v>-0.7144535483362131</v>
+        <v>-0.6161659213982735</v>
+      </c>
+      <c r="F29">
+        <v>-0.6244423776881755</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1024,11 +1108,8 @@
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="E30">
-        <v>-0.720708156800972</v>
-      </c>
-      <c r="F30">
-        <v>-0.7437737509543705</v>
+      <c r="D30">
+        <v>-0.5116391878692215</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1038,8 +1119,14 @@
       <c r="B31" t="s">
         <v>34</v>
       </c>
+      <c r="D31">
+        <v>-0.5329835367192807</v>
+      </c>
       <c r="E31">
-        <v>-0.7031682062064951</v>
+        <v>-0.6470470580714666</v>
+      </c>
+      <c r="F31">
+        <v>-0.62120156502947</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1049,11 +1136,11 @@
       <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="E32">
-        <v>-0.7322919857358914</v>
+      <c r="D32">
+        <v>-0.5726238247695669</v>
       </c>
       <c r="F32">
-        <v>-0.7398555439957212</v>
+        <v>-0.6723668116484499</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1063,11 +1150,11 @@
       <c r="B33" t="s">
         <v>36</v>
       </c>
-      <c r="E33">
-        <v>-0.7568797551641043</v>
+      <c r="D33">
+        <v>-0.5780952260077529</v>
       </c>
       <c r="F33">
-        <v>-0.759501318913578</v>
+        <v>-0.6768464151753566</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1077,8 +1164,11 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="E34">
-        <v>-0.7097269059286252</v>
+      <c r="D34">
+        <v>-0.6971953110666993</v>
+      </c>
+      <c r="F34">
+        <v>-0.6778042322592098</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1088,8 +1178,11 @@
       <c r="B35" t="s">
         <v>38</v>
       </c>
+      <c r="D35">
+        <v>-0.5803346435876975</v>
+      </c>
       <c r="F35">
-        <v>-0.7951054974980791</v>
+        <v>-0.6749399953910228</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1099,8 +1192,11 @@
       <c r="B36" t="s">
         <v>39</v>
       </c>
+      <c r="D36">
+        <v>-0.5803346435876975</v>
+      </c>
       <c r="F36">
-        <v>-0.7395607830381649</v>
+        <v>-0.6749399953910228</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1110,6 +1206,15 @@
       <c r="B37" t="s">
         <v>40</v>
       </c>
+      <c r="D37">
+        <v>-0.6230555509960714</v>
+      </c>
+      <c r="E37">
+        <v>-0.6038661410642036</v>
+      </c>
+      <c r="F37">
+        <v>-0.5871605342334988</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
@@ -1118,6 +1223,9 @@
       <c r="B38" t="s">
         <v>41</v>
       </c>
+      <c r="D38">
+        <v>-0.5033321739898876</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
@@ -1126,6 +1234,15 @@
       <c r="B39" t="s">
         <v>42</v>
       </c>
+      <c r="D39">
+        <v>-0.5189685250540346</v>
+      </c>
+      <c r="E39">
+        <v>-0.5813532521946988</v>
+      </c>
+      <c r="F39">
+        <v>-0.5692608608261963</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
@@ -1134,6 +1251,9 @@
       <c r="B40" t="s">
         <v>43</v>
       </c>
+      <c r="D40">
+        <v>-0.5020796236493514</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
@@ -1142,6 +1262,15 @@
       <c r="B41" t="s">
         <v>44</v>
       </c>
+      <c r="D41">
+        <v>-0.585662409282664</v>
+      </c>
+      <c r="E41">
+        <v>-0.6056836865202971</v>
+      </c>
+      <c r="F41">
+        <v>-0.5705846727017273</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
@@ -1150,6 +1279,15 @@
       <c r="B42" t="s">
         <v>45</v>
       </c>
+      <c r="D42">
+        <v>-0.5123543852399368</v>
+      </c>
+      <c r="E42">
+        <v>-0.6047395670522698</v>
+      </c>
+      <c r="F42">
+        <v>-0.5738375235329823</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
@@ -1158,6 +1296,15 @@
       <c r="B43" t="s">
         <v>46</v>
       </c>
+      <c r="D43">
+        <v>-0.5592452307928029</v>
+      </c>
+      <c r="E43">
+        <v>-0.580850803066522</v>
+      </c>
+      <c r="F43">
+        <v>-0.5470322690226743</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
@@ -1166,6 +1313,15 @@
       <c r="B44" t="s">
         <v>47</v>
       </c>
+      <c r="D44">
+        <v>-0.5765522063315699</v>
+      </c>
+      <c r="E44">
+        <v>-0.6042056093417599</v>
+      </c>
+      <c r="F44">
+        <v>-0.5719444804716897</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
@@ -1174,6 +1330,15 @@
       <c r="B45" t="s">
         <v>48</v>
       </c>
+      <c r="D45">
+        <v>-0.5576921358931352</v>
+      </c>
+      <c r="E45">
+        <v>-0.5477178833126636</v>
+      </c>
+      <c r="F45">
+        <v>-0.5218883052866168</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
@@ -1182,6 +1347,15 @@
       <c r="B46" t="s">
         <v>49</v>
       </c>
+      <c r="D46">
+        <v>-0.6175986108113718</v>
+      </c>
+      <c r="E46">
+        <v>-0.6544017071466273</v>
+      </c>
+      <c r="F46">
+        <v>-0.6336637933724576</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
@@ -1190,6 +1364,15 @@
       <c r="B47" t="s">
         <v>50</v>
       </c>
+      <c r="D47">
+        <v>-0.5110001798439308</v>
+      </c>
+      <c r="E47">
+        <v>-0.6219816126091321</v>
+      </c>
+      <c r="F47">
+        <v>-0.5765227206686299</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
@@ -1198,261 +1381,480 @@
       <c r="B48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="D48">
+        <v>-0.5604575066904008</v>
+      </c>
+      <c r="E48">
+        <v>-0.5796860101168214</v>
+      </c>
+      <c r="F48">
+        <v>-0.5472292353092105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="D49">
+        <v>0.668763961232634</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="D50">
+        <v>0.660206187384763</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="D51">
+        <v>-0.6049353043936397</v>
+      </c>
+      <c r="E51">
+        <v>-0.6574053761508124</v>
+      </c>
+      <c r="F51">
+        <v>-0.6288416245574939</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="D52">
+        <v>-0.5768228324049689</v>
+      </c>
+      <c r="E52">
+        <v>-0.6652802158814447</v>
+      </c>
+      <c r="F52">
+        <v>-0.6383022802298519</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="D53">
+        <v>-0.6116491681326149</v>
+      </c>
+      <c r="E53">
+        <v>-0.6116045204181993</v>
+      </c>
+      <c r="F53">
+        <v>-0.5900814196414675</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="D54">
+        <v>-0.5604186639055563</v>
+      </c>
+      <c r="E54">
+        <v>-0.6431240716412124</v>
+      </c>
+      <c r="F54">
+        <v>-0.6240958595978113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="D55">
+        <v>-0.6259652407326389</v>
+      </c>
+      <c r="F55">
+        <v>-0.6766450963625255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="D56">
+        <v>-0.619315057944761</v>
+      </c>
+      <c r="E56">
+        <v>-0.6723213317664064</v>
+      </c>
+      <c r="F56">
+        <v>-0.643538918137267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="D57">
+        <v>-0.6000719187519058</v>
+      </c>
+      <c r="E57">
+        <v>-0.6075927468245621</v>
+      </c>
+      <c r="F57">
+        <v>-0.5914278459108576</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="D58">
+        <v>-0.5452470659484648</v>
+      </c>
+      <c r="E58">
+        <v>-0.5863135436521195</v>
+      </c>
+      <c r="F58">
+        <v>-0.5528315160996806</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="D59">
+        <v>-0.5452470659484648</v>
+      </c>
+      <c r="E59">
+        <v>-0.5863135436521195</v>
+      </c>
+      <c r="F59">
+        <v>-0.5528315160996806</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="D60">
+        <v>-0.5214133608297292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="D61">
+        <v>-0.5349246608513789</v>
+      </c>
+      <c r="E61">
+        <v>-0.5016135013875512</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="D62">
+        <v>-0.6112742649530327</v>
+      </c>
+      <c r="E62">
+        <v>-0.6061206148161541</v>
+      </c>
+      <c r="F62">
+        <v>-0.5851168028370886</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="D63">
+        <v>-0.5249853417924211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="E64">
+        <v>0.6339060148747816</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="E65">
+        <v>-0.5719958652882822</v>
+      </c>
+      <c r="F65">
+        <v>-0.5197532071145677</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="E66">
+        <v>-0.5829576935210835</v>
+      </c>
+      <c r="F66">
+        <v>-0.5139873756867434</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="E67">
+        <v>-0.562715844870921</v>
+      </c>
+      <c r="F67">
+        <v>-0.5539203228641326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="E68">
+        <v>-0.5275423343767057</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="E69">
+        <v>-0.5592537116496201</v>
+      </c>
+      <c r="F69">
+        <v>-0.5376141020610201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="E70">
+        <v>-0.5185454971754857</v>
+      </c>
+      <c r="F70">
+        <v>-0.509985481170857</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="E71">
+        <v>-0.5135284838668658</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="E72">
+        <v>-0.5870241844973861</v>
+      </c>
+      <c r="F72">
+        <v>-0.5881143634499861</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="E73">
+        <v>0.5265496306659624</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="E74">
+        <v>0.5553720511368739</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="E75">
+        <v>0.5603509638903424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="E76">
+        <v>0.5689726062816606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="E77">
+        <v>-0.6518238524832786</v>
+      </c>
+      <c r="F77">
+        <v>-0.6134102789640116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="E78">
+        <v>-0.5437047731937423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="E79">
+        <v>-0.5192167377069906</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>83</v>
+      </c>
+      <c r="F80">
+        <v>-0.5083905924151065</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="F81">
+        <v>0.6496251818288679</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="F82">
+        <v>0.5746211195687886</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="F83">
+        <v>0.6941724371179212</v>
       </c>
     </row>
   </sheetData>

--- a/Correlations/medPearson.xlsx
+++ b/Correlations/medPearson.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>keyword</t>
   </si>
@@ -40,7 +40,7 @@
     <t>reabertura escolas</t>
   </si>
   <si>
-    <t>teste rapido de coronavírus</t>
+    <t>plano de reabertura</t>
   </si>
   <si>
     <t>febre</t>
@@ -58,6 +58,9 @@
     <t>ivermectina covid como tomar</t>
   </si>
   <si>
+    <t>brasil coronavírus</t>
+  </si>
+  <si>
     <t>covid</t>
   </si>
   <si>
@@ -91,129 +94,129 @@
     <t>mortes corona</t>
   </si>
   <si>
+    <t>estou com covid</t>
+  </si>
+  <si>
+    <t>peguei covid</t>
+  </si>
+  <si>
+    <t>teste coronavírus</t>
+  </si>
+  <si>
+    <t>falta de ar sintomas</t>
+  </si>
+  <si>
+    <t>falta de ar</t>
+  </si>
+  <si>
+    <t>sintomas coronavirus</t>
+  </si>
+  <si>
+    <t>seguro desemprego entrada</t>
+  </si>
+  <si>
+    <t>pico brasil</t>
+  </si>
+  <si>
+    <t>pico coronavírus</t>
+  </si>
+  <si>
+    <t>coronavírus brasil pico</t>
+  </si>
+  <si>
+    <t>coronavírus pico brasil</t>
+  </si>
+  <si>
+    <t>pico corona</t>
+  </si>
+  <si>
+    <t>leitos de uti</t>
+  </si>
+  <si>
+    <t>leitos uti brasil</t>
+  </si>
+  <si>
+    <t>fazer máscara</t>
+  </si>
+  <si>
+    <t>máscara</t>
+  </si>
+  <si>
+    <t>máscara tecido</t>
+  </si>
+  <si>
+    <t>como fazer máscara</t>
+  </si>
+  <si>
+    <t>máscara de tecido como fazer</t>
+  </si>
+  <si>
+    <t>máscara proteção</t>
+  </si>
+  <si>
+    <t>máscaras</t>
+  </si>
+  <si>
+    <t>máscara de tecido</t>
+  </si>
+  <si>
+    <t>teste rápido covid</t>
+  </si>
+  <si>
+    <t>teste igg</t>
+  </si>
+  <si>
+    <t>exame igg</t>
+  </si>
+  <si>
+    <t>quarentena</t>
+  </si>
+  <si>
+    <t>quarentena dia</t>
+  </si>
+  <si>
+    <t>quarentena brasil</t>
+  </si>
+  <si>
+    <t>fim quarentena</t>
+  </si>
+  <si>
+    <t>coronavírus idosos</t>
+  </si>
+  <si>
+    <t>brasil coronavírus mortes</t>
+  </si>
+  <si>
+    <t>mortes por coronavírus</t>
+  </si>
+  <si>
+    <t>decreto quarentena</t>
+  </si>
+  <si>
+    <t>coronavírus oms</t>
+  </si>
+  <si>
     <t>oms corona</t>
   </si>
   <si>
-    <t>respirador hospitalar</t>
+    <t>covid 19 oms</t>
+  </si>
+  <si>
+    <t>oms coronavírus</t>
+  </si>
+  <si>
+    <t>coronavírus imunidade</t>
+  </si>
+  <si>
+    <t>respirador mecanico</t>
+  </si>
+  <si>
+    <t>respirador</t>
   </si>
   <si>
     <t>medicamento coronavírus</t>
   </si>
   <si>
-    <t>estou com covid</t>
-  </si>
-  <si>
-    <t>peguei covid</t>
-  </si>
-  <si>
-    <t>teste coronavírus</t>
-  </si>
-  <si>
-    <t>falta de ar sintomas</t>
-  </si>
-  <si>
-    <t>falta de ar</t>
-  </si>
-  <si>
-    <t>sintomas coronavirus</t>
-  </si>
-  <si>
-    <t>seguro desemprego entrada</t>
-  </si>
-  <si>
-    <t>pico brasil</t>
-  </si>
-  <si>
-    <t>pico coronavírus</t>
-  </si>
-  <si>
-    <t>brasil coronavírus</t>
-  </si>
-  <si>
-    <t>coronavírus brasil pico</t>
-  </si>
-  <si>
-    <t>coronavírus pico brasil</t>
-  </si>
-  <si>
-    <t>pico corona</t>
-  </si>
-  <si>
-    <t>coronavírus grupo de risco</t>
-  </si>
-  <si>
-    <t>leitos de uti</t>
-  </si>
-  <si>
-    <t>leitos uti brasil</t>
-  </si>
-  <si>
-    <t>fazer máscara</t>
-  </si>
-  <si>
-    <t>máscara</t>
-  </si>
-  <si>
-    <t>máscara tecido</t>
-  </si>
-  <si>
-    <t>como fazer máscara</t>
-  </si>
-  <si>
-    <t>máscara de tecido como fazer</t>
-  </si>
-  <si>
-    <t>máscara proteção</t>
-  </si>
-  <si>
-    <t>máscaras</t>
-  </si>
-  <si>
-    <t>máscara de tecido</t>
-  </si>
-  <si>
-    <t>teste rápido covid</t>
-  </si>
-  <si>
-    <t>teste igg</t>
-  </si>
-  <si>
-    <t>quarentena</t>
-  </si>
-  <si>
-    <t>quarentena dia</t>
-  </si>
-  <si>
-    <t>quarentena brasil</t>
-  </si>
-  <si>
-    <t>fim quarentena</t>
-  </si>
-  <si>
-    <t>brasil coronavírus mortes</t>
-  </si>
-  <si>
-    <t>mortes por coronavírus</t>
-  </si>
-  <si>
-    <t>decreto quarentena</t>
-  </si>
-  <si>
-    <t>coronavírus oms</t>
-  </si>
-  <si>
-    <t>oms coronavírus</t>
-  </si>
-  <si>
-    <t>coronavírus imunidade</t>
-  </si>
-  <si>
-    <t>respirador mecanico</t>
-  </si>
-  <si>
-    <t>respirador</t>
-  </si>
-  <si>
     <t>medicamento corona</t>
   </si>
   <si>
@@ -238,9 +241,6 @@
     <t>cesta básica</t>
   </si>
   <si>
-    <t>cesta básica cras</t>
-  </si>
-  <si>
     <t>covid 19</t>
   </si>
   <si>
@@ -253,13 +253,10 @@
     <t>igg igm</t>
   </si>
   <si>
-    <t>exame igg</t>
+    <t>covid igm igg</t>
   </si>
   <si>
     <t>isolamento social</t>
-  </si>
-  <si>
-    <t>covid 19 oms</t>
   </si>
   <si>
     <t>oms brasil coronavírus</t>
@@ -632,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>-0.5362366636415538</v>
+        <v>-0.5298843925640192</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -674,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.5944476969591206</v>
+        <v>0.5724613466522677</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -685,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.6318909253801569</v>
+        <v>0.6277139032217374</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -696,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.5257855559551896</v>
+        <v>0.5180754023673459</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -707,13 +704,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>-0.5128026835030518</v>
+        <v>-0.5054703025661224</v>
       </c>
       <c r="D6">
-        <v>-0.6468810854286543</v>
+        <v>-0.6435260568030784</v>
       </c>
       <c r="E6">
-        <v>-0.6589713973500901</v>
+        <v>-0.6493205232644295</v>
+      </c>
+      <c r="F6">
+        <v>-0.6909407749191488</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -724,16 +724,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-0.6537770552135889</v>
+        <v>-0.6267235662899036</v>
       </c>
       <c r="D7">
-        <v>-0.6593813743940731</v>
+        <v>-0.6407125433125196</v>
       </c>
       <c r="E7">
-        <v>-0.5807272321026047</v>
+        <v>-0.5657203834044053</v>
       </c>
       <c r="F7">
-        <v>-0.6119506090070249</v>
+        <v>-0.5885792138545818</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -744,13 +744,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.6601081952784831</v>
+        <v>0.6568720299127607</v>
       </c>
       <c r="D8">
-        <v>0.6488623200418868</v>
+        <v>0.6262805470580947</v>
       </c>
       <c r="E8">
-        <v>0.5406552668669261</v>
+        <v>0.5113796304949823</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -761,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.6488931959718401</v>
+        <v>0.6360808923850713</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -772,10 +772,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.5844470536802379</v>
+        <v>0.6162413821355393</v>
       </c>
       <c r="D10">
-        <v>0.542862425102946</v>
+        <v>0.5812375835520257</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -786,7 +786,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.5473915465581353</v>
+        <v>-0.5011060779867562</v>
+      </c>
+      <c r="D11">
+        <v>-0.6999099059519418</v>
+      </c>
+      <c r="F11">
+        <v>-0.68007597671172</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -797,16 +803,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>-0.5332041421440694</v>
-      </c>
-      <c r="D12">
-        <v>-0.6860173647068464</v>
-      </c>
-      <c r="E12">
-        <v>-0.673968588709285</v>
-      </c>
-      <c r="F12">
-        <v>-0.649311583219053</v>
+        <v>0.5515198442975683</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -817,13 +814,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>-0.5019358193726434</v>
+        <v>-0.5325892038191464</v>
       </c>
       <c r="D13">
-        <v>-0.6890390857194996</v>
+        <v>-0.6874446262714363</v>
+      </c>
+      <c r="E13">
+        <v>-0.6772599026786896</v>
       </c>
       <c r="F13">
-        <v>-0.6719162762930753</v>
+        <v>-0.6499415640800077</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -834,10 +834,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.6050060806962162</v>
+        <v>-0.5162397833891751</v>
       </c>
       <c r="D14">
-        <v>0.5065866643503819</v>
+        <v>-0.6922325600030419</v>
+      </c>
+      <c r="E14">
+        <v>-0.6962255470788145</v>
+      </c>
+      <c r="F14">
+        <v>-0.669283303640225</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -848,16 +854,10 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>-0.5362614182819342</v>
+        <v>0.6135028454120487</v>
       </c>
       <c r="D15">
-        <v>-0.6830542077692024</v>
-      </c>
-      <c r="E15">
-        <v>-0.6726653996198015</v>
-      </c>
-      <c r="F15">
-        <v>-0.6531468926621024</v>
+        <v>0.5517178776320729</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -868,16 +868,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>-0.5621525997644951</v>
+        <v>-0.5157370319954672</v>
       </c>
       <c r="D16">
-        <v>-0.6412802596792256</v>
+        <v>-0.6502170073965613</v>
       </c>
       <c r="E16">
-        <v>-0.5949299107114547</v>
+        <v>-0.6499502050996024</v>
       </c>
       <c r="F16">
-        <v>-0.5814611140209659</v>
+        <v>-0.6433681334466054</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -888,10 +888,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.616243938322103</v>
+        <v>-0.5510367586718499</v>
+      </c>
+      <c r="D17">
+        <v>-0.6366548026267561</v>
+      </c>
+      <c r="E17">
+        <v>-0.5968255466592128</v>
       </c>
       <c r="F17">
-        <v>0.6184060261778789</v>
+        <v>-0.582431408070056</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -902,10 +908,10 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0.5511732301872425</v>
+        <v>0.6053356328044899</v>
       </c>
       <c r="F18">
-        <v>0.6058218931205637</v>
+        <v>0.639075253723516</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -916,10 +922,10 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0.5343857105021553</v>
+        <v>0.6491505976713666</v>
       </c>
       <c r="F19">
-        <v>0.5948367908200107</v>
+        <v>0.6403634284400217</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -930,16 +936,10 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>-0.5438550652167344</v>
-      </c>
-      <c r="D20">
-        <v>-0.6812858861084887</v>
-      </c>
-      <c r="E20">
-        <v>-0.6555292583786727</v>
+        <v>0.5566929634167199</v>
       </c>
       <c r="F20">
-        <v>-0.6295965067128116</v>
+        <v>0.6196441792189602</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -950,16 +950,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>-0.5197795655238204</v>
+        <v>-0.5184422150853343</v>
       </c>
       <c r="D21">
-        <v>-0.6342490868476084</v>
+        <v>-0.6611425590809871</v>
       </c>
       <c r="E21">
-        <v>-0.6077919495279067</v>
+        <v>-0.6418855400013818</v>
       </c>
       <c r="F21">
-        <v>-0.5858737671066652</v>
+        <v>-0.6139391111624752</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -970,16 +970,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>-0.5256523120727868</v>
+        <v>-0.5194199224065287</v>
       </c>
       <c r="D22">
-        <v>-0.5896518489879906</v>
+        <v>-0.6317383588785173</v>
       </c>
       <c r="E22">
-        <v>-0.5466259483409703</v>
+        <v>-0.6059831036141851</v>
       </c>
       <c r="F22">
-        <v>-0.5373717222098177</v>
+        <v>-0.5846259753385046</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -990,10 +990,13 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>-0.5094871892958059</v>
+        <v>0.6348578198893566</v>
       </c>
       <c r="D23">
-        <v>-0.5266382807564153</v>
+        <v>0.696930931737519</v>
+      </c>
+      <c r="E23">
+        <v>0.5916174921048659</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1004,16 +1007,10 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>-0.5216945707550431</v>
-      </c>
-      <c r="D24">
-        <v>-0.6051510965111764</v>
-      </c>
-      <c r="E24">
-        <v>-0.5671918941965197</v>
+        <v>0.5753746586818108</v>
       </c>
       <c r="F24">
-        <v>-0.5352790055300746</v>
+        <v>0.5515815214970435</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1023,11 +1020,14 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C25">
-        <v>0.6945465381792469</v>
+      <c r="D25">
+        <v>-0.581061558353047</v>
       </c>
       <c r="E25">
-        <v>0.6355669288754574</v>
+        <v>-0.6639171172090541</v>
+      </c>
+      <c r="F25">
+        <v>-0.6323471712308912</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1037,17 +1037,14 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26">
-        <v>0.5626900775784426</v>
-      </c>
       <c r="D26">
-        <v>0.6750265766077455</v>
+        <v>-0.5163087226489447</v>
       </c>
       <c r="E26">
-        <v>0.6881575047549481</v>
+        <v>-0.5493072977927046</v>
       </c>
       <c r="F26">
-        <v>0.5526479717258299</v>
+        <v>-0.5491602479636376</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1058,13 +1055,13 @@
         <v>30</v>
       </c>
       <c r="D27">
-        <v>-0.5812500190904001</v>
+        <v>-0.5702985265131355</v>
       </c>
       <c r="E27">
-        <v>-0.6512688576805418</v>
+        <v>-0.60872900003362</v>
       </c>
       <c r="F27">
-        <v>-0.6336959227865578</v>
+        <v>-0.6134758676958175</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1075,13 +1072,7 @@
         <v>31</v>
       </c>
       <c r="D28">
-        <v>-0.5168112567325291</v>
-      </c>
-      <c r="E28">
-        <v>-0.5793713900797451</v>
-      </c>
-      <c r="F28">
-        <v>-0.602729798405892</v>
+        <v>-0.513093090927218</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1092,13 +1083,13 @@
         <v>32</v>
       </c>
       <c r="D29">
-        <v>-0.5720652285935556</v>
+        <v>-0.5490895396889262</v>
       </c>
       <c r="E29">
-        <v>-0.6161659213982735</v>
+        <v>-0.6619821155222093</v>
       </c>
       <c r="F29">
-        <v>-0.6244423776881755</v>
+        <v>-0.6301383902987248</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1109,7 +1100,13 @@
         <v>33</v>
       </c>
       <c r="D30">
-        <v>-0.5116391878692215</v>
+        <v>-0.5494195401869393</v>
+      </c>
+      <c r="E30">
+        <v>-0.6863334635873766</v>
+      </c>
+      <c r="F30">
+        <v>-0.6546160686468622</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1120,13 +1117,13 @@
         <v>34</v>
       </c>
       <c r="D31">
-        <v>-0.5329835367192807</v>
+        <v>-0.5994003122760935</v>
       </c>
       <c r="E31">
-        <v>-0.6470470580714666</v>
+        <v>-0.6880206056418382</v>
       </c>
       <c r="F31">
-        <v>-0.62120156502947</v>
+        <v>-0.6509480099053765</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1137,10 +1134,13 @@
         <v>35</v>
       </c>
       <c r="D32">
-        <v>-0.5726238247695669</v>
+        <v>-0.5658504317806409</v>
+      </c>
+      <c r="E32">
+        <v>-0.6856654571626036</v>
       </c>
       <c r="F32">
-        <v>-0.6723668116484499</v>
+        <v>-0.6680501964332941</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1151,10 +1151,13 @@
         <v>36</v>
       </c>
       <c r="D33">
-        <v>-0.5780952260077529</v>
+        <v>-0.5658504317806409</v>
+      </c>
+      <c r="E33">
+        <v>-0.6856654571626036</v>
       </c>
       <c r="F33">
-        <v>-0.6768464151753566</v>
+        <v>-0.6680501964332941</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1165,10 +1168,13 @@
         <v>37</v>
       </c>
       <c r="D34">
-        <v>-0.6971953110666993</v>
+        <v>-0.6279447618379365</v>
+      </c>
+      <c r="E34">
+        <v>-0.6234808949656179</v>
       </c>
       <c r="F34">
-        <v>-0.6778042322592098</v>
+        <v>-0.6000610926926989</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1179,10 +1185,13 @@
         <v>38</v>
       </c>
       <c r="D35">
-        <v>-0.5803346435876975</v>
+        <v>-0.5126421699400545</v>
+      </c>
+      <c r="E35">
+        <v>-0.5874871676530904</v>
       </c>
       <c r="F35">
-        <v>-0.6749399953910228</v>
+        <v>-0.5693839101148434</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1193,10 +1202,7 @@
         <v>39</v>
       </c>
       <c r="D36">
-        <v>-0.5803346435876975</v>
-      </c>
-      <c r="F36">
-        <v>-0.6749399953910228</v>
+        <v>-0.5209641306125165</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1207,13 +1213,13 @@
         <v>40</v>
       </c>
       <c r="D37">
-        <v>-0.6230555509960714</v>
+        <v>-0.5824028885741799</v>
       </c>
       <c r="E37">
-        <v>-0.6038661410642036</v>
+        <v>-0.6138440430118716</v>
       </c>
       <c r="F37">
-        <v>-0.5871605342334988</v>
+        <v>-0.5795897378358859</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1224,7 +1230,13 @@
         <v>41</v>
       </c>
       <c r="D38">
-        <v>-0.5033321739898876</v>
+        <v>-0.5206575582537459</v>
+      </c>
+      <c r="E38">
+        <v>-0.6124052424659341</v>
+      </c>
+      <c r="F38">
+        <v>-0.5823187460608876</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1235,13 +1247,13 @@
         <v>42</v>
       </c>
       <c r="D39">
-        <v>-0.5189685250540346</v>
+        <v>-0.5612465798167254</v>
       </c>
       <c r="E39">
-        <v>-0.5813532521946988</v>
+        <v>-0.581977063747659</v>
       </c>
       <c r="F39">
-        <v>-0.5692608608261963</v>
+        <v>-0.5490335208700559</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1252,7 +1264,13 @@
         <v>43</v>
       </c>
       <c r="D40">
-        <v>-0.5020796236493514</v>
+        <v>-0.5872530784323056</v>
+      </c>
+      <c r="E40">
+        <v>-0.6105308893551414</v>
+      </c>
+      <c r="F40">
+        <v>-0.5719910644479228</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1263,13 +1281,13 @@
         <v>44</v>
       </c>
       <c r="D41">
-        <v>-0.585662409282664</v>
+        <v>-0.5455425808282035</v>
       </c>
       <c r="E41">
-        <v>-0.6056836865202971</v>
+        <v>-0.5396042509645439</v>
       </c>
       <c r="F41">
-        <v>-0.5705846727017273</v>
+        <v>-0.513590606865891</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1280,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="D42">
-        <v>-0.5123543852399368</v>
+        <v>-0.6239718210008357</v>
       </c>
       <c r="E42">
-        <v>-0.6047395670522698</v>
+        <v>-0.6687645065943529</v>
       </c>
       <c r="F42">
-        <v>-0.5738375235329823</v>
+        <v>-0.6447570985687889</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1297,13 +1315,13 @@
         <v>46</v>
       </c>
       <c r="D43">
-        <v>-0.5592452307928029</v>
+        <v>-0.5093518981881073</v>
       </c>
       <c r="E43">
-        <v>-0.580850803066522</v>
+        <v>-0.6101057724042778</v>
       </c>
       <c r="F43">
-        <v>-0.5470322690226743</v>
+        <v>-0.5700532793381413</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1314,13 +1332,13 @@
         <v>47</v>
       </c>
       <c r="D44">
-        <v>-0.5765522063315699</v>
+        <v>-0.5690912558692495</v>
       </c>
       <c r="E44">
-        <v>-0.6042056093417599</v>
+        <v>-0.5848777317452231</v>
       </c>
       <c r="F44">
-        <v>-0.5719444804716897</v>
+        <v>-0.5534993897013449</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1331,13 +1349,7 @@
         <v>48</v>
       </c>
       <c r="D45">
-        <v>-0.5576921358931352</v>
-      </c>
-      <c r="E45">
-        <v>-0.5477178833126636</v>
-      </c>
-      <c r="F45">
-        <v>-0.5218883052866168</v>
+        <v>0.6668496947888144</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1348,13 +1360,7 @@
         <v>49</v>
       </c>
       <c r="D46">
-        <v>-0.6175986108113718</v>
-      </c>
-      <c r="E46">
-        <v>-0.6544017071466273</v>
-      </c>
-      <c r="F46">
-        <v>-0.6336637933724576</v>
+        <v>0.6776607149650417</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1365,13 +1371,7 @@
         <v>50</v>
       </c>
       <c r="D47">
-        <v>-0.5110001798439308</v>
-      </c>
-      <c r="E47">
-        <v>-0.6219816126091321</v>
-      </c>
-      <c r="F47">
-        <v>-0.5765227206686299</v>
+        <v>0.6453443382096803</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1382,13 +1382,13 @@
         <v>51</v>
       </c>
       <c r="D48">
-        <v>-0.5604575066904008</v>
+        <v>-0.6072719035199597</v>
       </c>
       <c r="E48">
-        <v>-0.5796860101168214</v>
+        <v>-0.6606545420875842</v>
       </c>
       <c r="F48">
-        <v>-0.5472292353092105</v>
+        <v>-0.6281240419155764</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1399,7 +1399,13 @@
         <v>52</v>
       </c>
       <c r="D49">
-        <v>0.668763961232634</v>
+        <v>-0.5853734900990253</v>
+      </c>
+      <c r="E49">
+        <v>-0.6643514546104506</v>
+      </c>
+      <c r="F49">
+        <v>-0.6385211274848146</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1410,7 +1416,13 @@
         <v>53</v>
       </c>
       <c r="D50">
-        <v>0.660206187384763</v>
+        <v>-0.6196072601604428</v>
+      </c>
+      <c r="E50">
+        <v>-0.6158184561853475</v>
+      </c>
+      <c r="F50">
+        <v>-0.5889373929311763</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1421,13 +1433,13 @@
         <v>54</v>
       </c>
       <c r="D51">
-        <v>-0.6049353043936397</v>
+        <v>-0.5714182652777948</v>
       </c>
       <c r="E51">
-        <v>-0.6574053761508124</v>
+        <v>-0.6420438353857468</v>
       </c>
       <c r="F51">
-        <v>-0.6288416245574939</v>
+        <v>-0.620034959441278</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1438,13 +1450,7 @@
         <v>55</v>
       </c>
       <c r="D52">
-        <v>-0.5768228324049689</v>
-      </c>
-      <c r="E52">
-        <v>-0.6652802158814447</v>
-      </c>
-      <c r="F52">
-        <v>-0.6383022802298519</v>
+        <v>-0.506236743001917</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1455,13 +1461,10 @@
         <v>56</v>
       </c>
       <c r="D53">
-        <v>-0.6116491681326149</v>
-      </c>
-      <c r="E53">
-        <v>-0.6116045204181993</v>
+        <v>-0.6222246369704512</v>
       </c>
       <c r="F53">
-        <v>-0.5900814196414675</v>
+        <v>-0.6725525073526429</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1472,13 +1475,13 @@
         <v>57</v>
       </c>
       <c r="D54">
-        <v>-0.5604186639055563</v>
+        <v>-0.6261530784443571</v>
       </c>
       <c r="E54">
-        <v>-0.6431240716412124</v>
+        <v>-0.682820014124907</v>
       </c>
       <c r="F54">
-        <v>-0.6240958595978113</v>
+        <v>-0.6454825101734957</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1489,10 +1492,13 @@
         <v>58</v>
       </c>
       <c r="D55">
-        <v>-0.6259652407326389</v>
+        <v>-0.5843810727968289</v>
+      </c>
+      <c r="E55">
+        <v>-0.5864149594929967</v>
       </c>
       <c r="F55">
-        <v>-0.6766450963625255</v>
+        <v>-0.5747251274702755</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1503,13 +1509,13 @@
         <v>59</v>
       </c>
       <c r="D56">
-        <v>-0.619315057944761</v>
+        <v>-0.5624492574819212</v>
       </c>
       <c r="E56">
-        <v>-0.6723213317664064</v>
+        <v>-0.5955414079113156</v>
       </c>
       <c r="F56">
-        <v>-0.643538918137267</v>
+        <v>-0.5657166246816364</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1520,13 +1526,13 @@
         <v>60</v>
       </c>
       <c r="D57">
-        <v>-0.6000719187519058</v>
+        <v>-0.5405938935230334</v>
       </c>
       <c r="E57">
-        <v>-0.6075927468245621</v>
+        <v>-0.5108350920906873</v>
       </c>
       <c r="F57">
-        <v>-0.5914278459108576</v>
+        <v>-0.5017625225126322</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1537,13 +1543,13 @@
         <v>61</v>
       </c>
       <c r="D58">
-        <v>-0.5452470659484648</v>
+        <v>-0.5023652976848673</v>
       </c>
       <c r="E58">
-        <v>-0.5863135436521195</v>
+        <v>-0.573289587137391</v>
       </c>
       <c r="F58">
-        <v>-0.5528315160996806</v>
+        <v>-0.5329444604880872</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1554,13 +1560,13 @@
         <v>62</v>
       </c>
       <c r="D59">
-        <v>-0.5452470659484648</v>
+        <v>-0.5624492574819212</v>
       </c>
       <c r="E59">
-        <v>-0.5863135436521195</v>
+        <v>-0.5955414079113156</v>
       </c>
       <c r="F59">
-        <v>-0.5528315160996806</v>
+        <v>-0.5657166246816364</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1571,7 +1577,13 @@
         <v>63</v>
       </c>
       <c r="D60">
-        <v>-0.5214133608297292</v>
+        <v>-0.528145668935154</v>
+      </c>
+      <c r="E60">
+        <v>-0.5206368298643433</v>
+      </c>
+      <c r="F60">
+        <v>-0.5036731706771266</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1582,10 +1594,10 @@
         <v>64</v>
       </c>
       <c r="D61">
-        <v>-0.5349246608513789</v>
+        <v>-0.5442981091639083</v>
       </c>
       <c r="E61">
-        <v>-0.5016135013875512</v>
+        <v>-0.5019951653251142</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1596,13 +1608,13 @@
         <v>65</v>
       </c>
       <c r="D62">
-        <v>-0.6112742649530327</v>
+        <v>-0.6195579156614195</v>
       </c>
       <c r="E62">
-        <v>-0.6061206148161541</v>
+        <v>-0.6103967349321646</v>
       </c>
       <c r="F62">
-        <v>-0.5851168028370886</v>
+        <v>-0.5829235387124739</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1613,7 +1625,7 @@
         <v>66</v>
       </c>
       <c r="D63">
-        <v>-0.5249853417924211</v>
+        <v>-0.5396063302308375</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1623,8 +1635,8 @@
       <c r="B64" t="s">
         <v>67</v>
       </c>
-      <c r="E64">
-        <v>0.6339060148747816</v>
+      <c r="D64">
+        <v>-0.5304861494083679</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1635,10 +1647,7 @@
         <v>68</v>
       </c>
       <c r="E65">
-        <v>-0.5719958652882822</v>
-      </c>
-      <c r="F65">
-        <v>-0.5197532071145677</v>
+        <v>0.6334040595258136</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1649,10 +1658,10 @@
         <v>69</v>
       </c>
       <c r="E66">
-        <v>-0.5829576935210835</v>
+        <v>-0.5974825482434037</v>
       </c>
       <c r="F66">
-        <v>-0.5139873756867434</v>
+        <v>-0.5567902375367498</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1663,10 +1672,10 @@
         <v>70</v>
       </c>
       <c r="E67">
-        <v>-0.562715844870921</v>
+        <v>-0.5854277313678978</v>
       </c>
       <c r="F67">
-        <v>-0.5539203228641326</v>
+        <v>-0.5233447258805162</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1677,7 +1686,10 @@
         <v>71</v>
       </c>
       <c r="E68">
-        <v>-0.5275423343767057</v>
+        <v>-0.6015401930991131</v>
+      </c>
+      <c r="F68">
+        <v>-0.5825031457894514</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1688,10 +1700,7 @@
         <v>72</v>
       </c>
       <c r="E69">
-        <v>-0.5592537116496201</v>
-      </c>
-      <c r="F69">
-        <v>-0.5376141020610201</v>
+        <v>-0.5249792240684046</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1702,10 +1711,10 @@
         <v>73</v>
       </c>
       <c r="E70">
-        <v>-0.5185454971754857</v>
+        <v>-0.5510587958591916</v>
       </c>
       <c r="F70">
-        <v>-0.509985481170857</v>
+        <v>-0.5359655738909123</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1716,7 +1725,7 @@
         <v>74</v>
       </c>
       <c r="E71">
-        <v>-0.5135284838668658</v>
+        <v>-0.5039650940070978</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1727,10 +1736,10 @@
         <v>75</v>
       </c>
       <c r="E72">
-        <v>-0.5870241844973861</v>
+        <v>-0.5937597905395521</v>
       </c>
       <c r="F72">
-        <v>-0.5881143634499861</v>
+        <v>-0.5892786302721958</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1741,7 +1750,7 @@
         <v>76</v>
       </c>
       <c r="E73">
-        <v>0.5265496306659624</v>
+        <v>0.532785637702512</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1752,7 +1761,7 @@
         <v>77</v>
       </c>
       <c r="E74">
-        <v>0.5553720511368739</v>
+        <v>0.5427428753575229</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1763,7 +1772,7 @@
         <v>78</v>
       </c>
       <c r="E75">
-        <v>0.5603509638903424</v>
+        <v>0.5213310807047424</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1774,7 +1783,7 @@
         <v>79</v>
       </c>
       <c r="E76">
-        <v>0.5689726062816606</v>
+        <v>0.5065951436059227</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1785,10 +1794,10 @@
         <v>80</v>
       </c>
       <c r="E77">
-        <v>-0.6518238524832786</v>
+        <v>-0.6507823634204736</v>
       </c>
       <c r="F77">
-        <v>-0.6134102789640116</v>
+        <v>-0.6124717645678717</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1799,7 +1808,10 @@
         <v>81</v>
       </c>
       <c r="E78">
-        <v>-0.5437047731937423</v>
+        <v>-0.5554699425394802</v>
+      </c>
+      <c r="F78">
+        <v>-0.5584243039796065</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1809,8 +1821,8 @@
       <c r="B79" t="s">
         <v>82</v>
       </c>
-      <c r="E79">
-        <v>-0.5192167377069906</v>
+      <c r="F79">
+        <v>-0.5071674989383491</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1821,7 +1833,7 @@
         <v>83</v>
       </c>
       <c r="F80">
-        <v>-0.5083905924151065</v>
+        <v>0.6811405700070683</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1832,7 +1844,7 @@
         <v>84</v>
       </c>
       <c r="F81">
-        <v>0.6496251818288679</v>
+        <v>0.5785611078875459</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1843,18 +1855,7 @@
         <v>85</v>
       </c>
       <c r="F82">
-        <v>0.5746211195687886</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="F83">
-        <v>0.6941724371179212</v>
+        <v>0.6753650719316409</v>
       </c>
     </row>
   </sheetData>
